--- a/MCB- Agents List - 08-01-2026 .xlsx
+++ b/MCB- Agents List - 08-01-2026 .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCB0170E\Desktop\Agent Lists - MCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\mcb\rtsis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{244045C7-F1EB-4AD6-BE82-0AD354FC5DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51E32B-6A2C-49C1-A94E-F7B1563FE588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77065970-3BF2-46E4-AC19-A2333400346F}"/>
   </bookViews>
@@ -9451,7 +9451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B595C7-B37C-478B-B7A8-397FFBABDE19}">
   <dimension ref="A1:K754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="B504" sqref="B504"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
